--- a/biology/Zoologie/Diplura_riveti/Diplura_riveti.xlsx
+++ b/biology/Zoologie/Diplura_riveti/Diplura_riveti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplura riveti est une espèce d'araignées mygalomorphes de la famille des Dipluridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplura riveti est une espèce d'araignées mygalomorphes de la famille des Dipluridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Équateur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Équateur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Rivet.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1903 : Études arachnologiques. 34e Mémoire. LVI. Descriptions de deux espèces nouvelles de la famille des Avicularides recueillis dans l'Ecuador par M. le Dr Rivet et faisant partie des collections du Muséum de Paris. Annales de la Société Entomologique de France, vol. 72, p. 314 (texte intégral).</t>
         </is>
